--- a/testcase/middleground/caseData/caseData_attr.xlsx
+++ b/testcase/middleground/caseData/caseData_attr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25417" windowHeight="11112"/>
+    <workbookView windowWidth="15120" windowHeight="7566" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="attrAdd" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>case_no</t>
   </si>
@@ -35,22 +35,140 @@
     <t>case_expect</t>
   </si>
   <si>
-    <t>正常创建号段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">号段管理 </t>
-  </si>
-  <si>
-    <t>/admin/section/add</t>
-  </si>
-  <si>
-    <t>{'prefix':'#prefix#','bizId':1,'num':#num#}</t>
-  </si>
-  <si>
-    <t>正常查询号段</t>
-  </si>
-  <si>
-    <t>{"pn":1,"ps":5}</t>
+    <t>属性名字attrName为1位字符</t>
+  </si>
+  <si>
+    <t>属性管理</t>
+  </si>
+  <si>
+    <t>/admin/attr/add</t>
+  </si>
+  <si>
+    <t>{"attrName":"@a@","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>属性名字attrName为20位字符</t>
+  </si>
+  <si>
+    <t>{"attrName":"@abcdeabcdeabcdeabcde@","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>属性名字attrName为空</t>
+  </si>
+  <si>
+    <t>{"attrName":"","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>{
+  "errorCode": "11020003",
+  "errorMsg": "名称不能为空",
+  "status": "ERROR"
+}</t>
+  </si>
+  <si>
+    <t>属性名字attrName为21位字符</t>
+  </si>
+  <si>
+    <t>{"attrName":"abcde12345abcde12345a","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>{
+  "errorCode": "11020003",
+  "errorMsg": "名称不超过20字",
+  "status": "ERROR"
+}</t>
+  </si>
+  <si>
+    <t>属性名字attrName为空格</t>
+  </si>
+  <si>
+    <t>{"attrName":" ","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>属性名字attrName为特殊字符</t>
+  </si>
+  <si>
+    <t>{"attrName":"@%@","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>是否销售属性isSale为空</t>
+  </si>
+  <si>
+    <t>{"attrName":"#attrName#","isSale":""}</t>
+  </si>
+  <si>
+    <t>{
+  "errorCode": "11020003",
+  "errorMsg": "是否为销售属性不能为空",
+  "status": "ERROR"
+}</t>
+  </si>
+  <si>
+    <t>是否销售属性isSale为空格</t>
+  </si>
+  <si>
+    <t>{"attrName":"#attrName#","isSale":" "}</t>
+  </si>
+  <si>
+    <t>是否销售属性isSale为字符</t>
+  </si>
+  <si>
+    <t>{"attrName":"#attrName#","isSale":"a"}</t>
+  </si>
+  <si>
+    <t>{
+  "errorCode": "11020003",
+  "errorMsg": "参数验证错误, Failed to convert property value of type 'java.lang.String' to required type 'java.lang.Integer' for property 'isSale'; nested exception is java.lang.NumberFormatException: For input string: \"a\"; ",
+  "status": "ERROR"
+}</t>
+  </si>
+  <si>
+    <t>是否销售属性isSale为特殊字符</t>
+  </si>
+  <si>
+    <t>{"attrName":"#attrName#","isSale":"#"}</t>
+  </si>
+  <si>
+    <t>页数pn为0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规格管理</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">/admin/brand/page-list </t>
+  </si>
+  <si>
+    <t>{"pn":0,"ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>{"pn":1,"ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
   </si>
 </sst>
 </file>
@@ -58,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,12 +191,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -86,6 +257,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +280,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -109,7 +304,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -118,45 +313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,49 +328,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -225,6 +355,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,175 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,13 +549,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,21 +583,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -478,8 +606,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,30 +646,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,15 +1122,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="12.9" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="26.1651376146789" customWidth="1"/>
+    <col min="2" max="2" width="31.7614678899083" customWidth="1"/>
     <col min="3" max="3" width="19.4128440366972" customWidth="1"/>
     <col min="4" max="4" width="20.6146788990826" customWidth="1"/>
     <col min="5" max="5" width="71.5412844036697" customWidth="1"/>
@@ -1047,38 +1177,185 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="6:6">
-      <c r="F6" s="1"/>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="1"/>
+    <row r="4" ht="64.55" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="1"/>
+    <row r="5" ht="64.55" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="1"/>
+    <row r="6" ht="64.55" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="1"/>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="1"/>
+    <row r="8" ht="64.55" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="1"/>
+    <row r="9" ht="64.55" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="1"/>
+    <row r="10" ht="103.25" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="1"/>
+    <row r="11" ht="103.25" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1089,20 +1366,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A3:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="12.9" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="12.9" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.4954128440367" customWidth="1"/>
-    <col min="2" max="2" width="27.256880733945" customWidth="1"/>
-    <col min="3" max="3" width="9.45871559633028" customWidth="1"/>
-    <col min="4" max="4" width="20.6146788990826" customWidth="1"/>
-    <col min="5" max="5" width="39.7339449541284" customWidth="1"/>
-    <col min="6" max="6" width="46.605504587156" customWidth="1"/>
+    <col min="2" max="2" width="25.9266055045872" customWidth="1"/>
+    <col min="3" max="3" width="12.954128440367" customWidth="1"/>
+    <col min="4" max="4" width="23.5504587155963" customWidth="1"/>
+    <col min="5" max="5" width="79.1376146788991" customWidth="1"/>
+    <col min="6" max="6" width="67.7247706422018" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1125,55 +1402,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="14.95" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="6:6">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="6:6">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="6:6">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="1"/>
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testcase/middleground/caseData/caseData_attr.xlsx
+++ b/testcase/middleground/caseData/caseData_attr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="7566" activeTab="1"/>
+    <workbookView windowWidth="25417" windowHeight="11112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="attrAdd" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>case_no</t>
   </si>
@@ -170,6 +170,104 @@
   <si>
     <t>{"pn":1,"ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
   </si>
+  <si>
+    <t>页数pn为空</t>
+  </si>
+  <si>
+    <t>属性/规格管理</t>
+  </si>
+  <si>
+    <t>{"pn":"","ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>页数pn为空格</t>
+  </si>
+  <si>
+    <t>{"pn":" ","ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>页数pn为小数</t>
+  </si>
+  <si>
+    <t>{"pn":1.1,"ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>{
+  "errorCode": "11020003","status": "ERROR"
+}</t>
+  </si>
+  <si>
+    <t>页数pn为字符</t>
+  </si>
+  <si>
+    <t>{"pn":"a","ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>页数pn为特殊字符</t>
+  </si>
+  <si>
+    <t>{"pn":"!","ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>页数pn为负数</t>
+  </si>
+  <si>
+    <t>{"pn":-1,"ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>页数pn为极大值</t>
+  </si>
+  <si>
+    <t>{"pn":100000000000000000,"ps":#ps#,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为0</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":0,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":20,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为空</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":"","attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为空格</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为小数</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":5.1,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为字符</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":"a","attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为特殊字符</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":"!","attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为负数</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":-1,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
+  <si>
+    <t>每页显示数量ps为极大值</t>
+  </si>
+  <si>
+    <t>{"pn":#pn#,"ps":10000000000000,"attrName":"#attrName#","isSale":#isSale#}</t>
+  </si>
 </sst>
 </file>
 
@@ -191,14 +289,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,8 +386,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +403,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,90 +429,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,30 +644,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,6 +658,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,17 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,6 +712,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -654,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,139 +764,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1213,7 +1317,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1233,7 +1337,7 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1253,7 +1357,7 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1273,7 +1377,7 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1293,7 +1397,7 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1313,7 +1417,7 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1333,7 +1437,7 @@
       <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1353,7 +1457,7 @@
       <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1366,13 +1470,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD26"/>
+      <selection activeCell="A3" sqref="A3:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="12.9" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="12.9" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.4954128440367" customWidth="1"/>
     <col min="2" max="2" width="25.9266055045872" customWidth="1"/>
@@ -1422,6 +1526,306 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="38.7" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="38.7" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="38.7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="38.7" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="38.7" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="38.7" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="38.7" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="38.7" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="38.7" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="38.7" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
